--- a/media/files/cooking.xlsx
+++ b/media/files/cooking.xlsx
@@ -35,9 +35,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Brand Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -477,6 +474,9 @@
   <si>
     <t>The Hotpoint HUE61GS Ceramic Electric Double Oven in a graphite finish boasting over 100 litres of cooking space across two ovens enough for a large family. The 4 ceramic burners provide room for all your pots and pans so the boiled vegetables and sauces are sorted too. The main oven is a fan oven which cooks food evenly as the air is circulated around your food, meaning you can stick everything in at once. And the top cavity can be used as grill or conventional oven giving you flexibility.
 Both ovens are A rated for energy, making them extremely efficient making it cheaper to run and saving you money as well. There is a hassle free automatic ignition and you can set the programmable timer to start cooking when you're out and can have your meal ready as you step in the door perfect when time is short.</t>
+  </si>
+  <si>
+    <t>Brand</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2514,7 @@
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="183" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2536,22 +2536,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="183" customHeight="1" x14ac:dyDescent="0.25">
@@ -2559,20 +2559,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2">
         <v>189</v>
@@ -2583,20 +2583,20 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2">
         <v>189</v>
@@ -2607,20 +2607,20 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2">
         <v>229</v>
@@ -2631,20 +2631,20 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2">
         <v>249</v>
@@ -2655,20 +2655,20 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2">
         <v>229</v>
@@ -2679,20 +2679,20 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2">
         <v>259</v>
@@ -2703,20 +2703,20 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2">
         <v>219</v>
@@ -2727,20 +2727,20 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2">
         <v>229</v>
@@ -2751,20 +2751,20 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2">
         <v>329</v>
@@ -2775,20 +2775,20 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2">
         <v>289</v>
@@ -2799,20 +2799,20 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2">
         <v>299</v>
@@ -2823,20 +2823,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2">
         <v>319</v>
@@ -2847,20 +2847,20 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>349</v>
@@ -2871,20 +2871,20 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2">
         <v>279</v>
@@ -2895,20 +2895,20 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2">
         <v>319</v>
@@ -2919,20 +2919,20 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2">
         <v>339</v>
@@ -2943,20 +2943,20 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2">
         <v>339</v>
@@ -2967,20 +2967,20 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2">
         <v>299</v>
@@ -2991,20 +2991,20 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2">
         <v>319</v>
@@ -3015,20 +3015,20 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2">
         <v>299</v>
@@ -3039,20 +3039,20 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2">
         <v>349</v>
@@ -3063,20 +3063,20 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2">
         <v>379</v>
@@ -3087,20 +3087,20 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="2">
         <v>379</v>
@@ -3111,20 +3111,20 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2">
         <v>299</v>
@@ -3135,20 +3135,20 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2">
         <v>389</v>
@@ -3159,20 +3159,20 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2">
         <v>199</v>
@@ -3183,20 +3183,20 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="2">
         <v>149</v>
@@ -3207,20 +3207,20 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="2">
         <v>189</v>
@@ -3231,20 +3231,20 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="2">
         <v>209</v>
@@ -3255,20 +3255,20 @@
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2">
         <v>199</v>
@@ -3279,20 +3279,20 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="2">
         <v>189</v>
@@ -3303,20 +3303,20 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="2">
         <v>329</v>
@@ -3327,20 +3327,20 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="2">
         <v>449</v>
@@ -3351,20 +3351,20 @@
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="2">
         <v>499</v>
@@ -3375,20 +3375,20 @@
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" s="3">
         <v>279</v>
@@ -3399,20 +3399,20 @@
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" s="3">
         <v>359</v>
@@ -3423,20 +3423,20 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38" s="3">
         <v>75</v>
@@ -3447,20 +3447,20 @@
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="F39" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39" s="3">
         <v>389</v>
